--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561326.0430215494</v>
+        <v>550280.905284967</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="F2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="G2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="H2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="I2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="J2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="K2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="L2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="M2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="N2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="O2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
       <c r="P2" t="n">
-        <v>148616.7125948227</v>
+        <v>148616.7125948226</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="C4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="D4" t="n">
-        <v>439830.3974941829</v>
+        <v>441649.2499958206</v>
       </c>
       <c r="E4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="F4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="G4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="H4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="I4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="J4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="K4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="L4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="M4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="N4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="O4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
       <c r="P4" t="n">
-        <v>56260.6346805183</v>
+        <v>57338.49600323978</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59071.62267189203</v>
+        <v>57252.7701702544</v>
       </c>
       <c r="C6" t="n">
-        <v>59071.62267189203</v>
+        <v>57252.7701702544</v>
       </c>
       <c r="D6" t="n">
-        <v>59071.62267189215</v>
+        <v>57252.7701702544</v>
       </c>
       <c r="E6" t="n">
-        <v>-44355.53419070402</v>
+        <v>-45433.3955134255</v>
       </c>
       <c r="F6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="G6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="H6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="I6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="J6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="K6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="L6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="M6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="N6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="O6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
       <c r="P6" t="n">
-        <v>88744.46580929605</v>
+        <v>87666.60448657451</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550280.905284967</v>
+        <v>564007.2634223854</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660748</v>
       </c>
       <c r="D2" t="n">
         <v>532529.620166075</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="G4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="H4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="I4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="J4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="K4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="L4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="M4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="N4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
       <c r="O4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323976</v>
       </c>
       <c r="P4" t="n">
-        <v>57338.49600323978</v>
+        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57252.7701702544</v>
+        <v>57252.77017025461</v>
       </c>
       <c r="C6" t="n">
-        <v>57252.7701702544</v>
+        <v>57252.77017025432</v>
       </c>
       <c r="D6" t="n">
-        <v>57252.7701702544</v>
+        <v>57252.77017025449</v>
       </c>
       <c r="E6" t="n">
-        <v>-45433.3955134255</v>
+        <v>-45433.39551342554</v>
       </c>
       <c r="F6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="G6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="H6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="I6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="J6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="K6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="L6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="M6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="N6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="O6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
       <c r="P6" t="n">
-        <v>87666.60448657451</v>
+        <v>87666.60448657452</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_18_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>564007.2634223854</v>
+        <v>480221.8616607609</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660748</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="E2" t="n">
         <v>148616.7125948226</v>
@@ -26429,37 +26429,37 @@
         <v>57338.49600323976</v>
       </c>
       <c r="F4" t="n">
+        <v>57338.49600323976</v>
+      </c>
+      <c r="G4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>57338.49600323976</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>57338.49600323977</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>57338.49600323976</v>
-      </c>
-      <c r="P4" t="n">
-        <v>57338.49600323977</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57252.77017025461</v>
+        <v>57208.63439157348</v>
       </c>
       <c r="C6" t="n">
-        <v>57252.77017025432</v>
+        <v>57208.63439157343</v>
       </c>
       <c r="D6" t="n">
-        <v>57252.77017025449</v>
+        <v>57208.63439157348</v>
       </c>
       <c r="E6" t="n">
-        <v>-45433.39551342554</v>
+        <v>-60243.41235253945</v>
       </c>
       <c r="F6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="G6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="H6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="I6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="J6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="K6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="L6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="M6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="N6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="O6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
       <c r="P6" t="n">
-        <v>87666.60448657452</v>
+        <v>72856.58764746062</v>
       </c>
     </row>
   </sheetData>
